--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Calca-Calcrl.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Calca-Calcrl.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.283482119332711</v>
+        <v>0.395701</v>
       </c>
       <c r="H2">
-        <v>0.283482119332711</v>
+        <v>1.187103</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.5159814317994</v>
+        <v>46.06383033333333</v>
       </c>
       <c r="N2">
-        <v>39.5159814317994</v>
+        <v>138.191491</v>
       </c>
       <c r="O2">
-        <v>0.5759177513972404</v>
+        <v>0.6011809800814781</v>
       </c>
       <c r="P2">
-        <v>0.5759177513972404</v>
+        <v>0.601180980081478</v>
       </c>
       <c r="Q2">
-        <v>11.20207416379855</v>
+        <v>18.22750372673033</v>
       </c>
       <c r="R2">
-        <v>11.20207416379855</v>
+        <v>164.047533540573</v>
       </c>
       <c r="S2">
-        <v>0.5759177513972404</v>
+        <v>0.6011809800814781</v>
       </c>
       <c r="T2">
-        <v>0.5759177513972404</v>
+        <v>0.601180980081478</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.283482119332711</v>
+        <v>0.395701</v>
       </c>
       <c r="H3">
-        <v>0.283482119332711</v>
+        <v>1.187103</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.8641364466499</v>
+        <v>24.118612</v>
       </c>
       <c r="N3">
-        <v>23.8641364466499</v>
+        <v>72.35583600000001</v>
       </c>
       <c r="O3">
-        <v>0.3478030736782261</v>
+        <v>0.3147730159528759</v>
       </c>
       <c r="P3">
-        <v>0.3478030736782261</v>
+        <v>0.3147730159528759</v>
       </c>
       <c r="Q3">
-        <v>6.765055975941305</v>
+        <v>9.543758887012002</v>
       </c>
       <c r="R3">
-        <v>6.765055975941305</v>
+        <v>85.89382998310802</v>
       </c>
       <c r="S3">
-        <v>0.3478030736782261</v>
+        <v>0.3147730159528759</v>
       </c>
       <c r="T3">
-        <v>0.3478030736782261</v>
+        <v>0.3147730159528759</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.283482119332711</v>
+        <v>0.395701</v>
       </c>
       <c r="H4">
-        <v>0.283482119332711</v>
+        <v>1.187103</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.23381412126635</v>
+        <v>6.439792666666666</v>
       </c>
       <c r="N4">
-        <v>5.23381412126635</v>
+        <v>19.319378</v>
       </c>
       <c r="O4">
-        <v>0.07627917492453339</v>
+        <v>0.0840460039656461</v>
       </c>
       <c r="P4">
-        <v>0.07627917492453339</v>
+        <v>0.0840460039656461</v>
       </c>
       <c r="Q4">
-        <v>1.483692719290055</v>
+        <v>2.548232397992667</v>
       </c>
       <c r="R4">
-        <v>1.483692719290055</v>
+        <v>22.934091581934</v>
       </c>
       <c r="S4">
-        <v>0.07627917492453339</v>
+        <v>0.0840460039656461</v>
       </c>
       <c r="T4">
-        <v>0.07627917492453339</v>
+        <v>0.0840460039656461</v>
       </c>
     </row>
   </sheetData>
